--- a/biology/Zoologie/Filarioidea/Filarioidea.xlsx
+++ b/biology/Zoologie/Filarioidea/Filarioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Filarioidea sont une super-famille de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 mai 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 mai 2021) :
 Filariidae Chabaud &amp; Anderson, 1959
 Onchocercidae Leiper, 1911</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alain G. Chabaud et Roy C. Anderson, « Nouvel essai de classification des Filaires (Superfamille des Filarioidea) II. 1959 », Annales de Parasitologie Humaine et Comparée, vol. 34, nos 1-2,‎ 1959, p. 64-87 (ISSN 0003-4150, DOI 10.1051/PARASITE/1959341064, lire en ligne)</t>
         </is>
